--- a/biology/Zoologie/Denisimeria/Denisimeria.xlsx
+++ b/biology/Zoologie/Denisimeria/Denisimeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denisimeria est un genre de collemboles de la famille des Neanuridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 3 novembre 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 3 novembre 2019) :
 Denisimeria caudata (Denis, 1948)
 Denisimeria longilobata Massoud, 1965
 Denisimeria martyni Yoshii, 1980</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Massoud, 1965 : Description d'un nouveau genre de Poduromorphe (Collembola Arthrooleona). Revue d'écologie et de biologie du sol, vol. 1, p. 511-518.</t>
         </is>
